--- a/Analytics/Spreadsheet.xlsx
+++ b/Analytics/Spreadsheet.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="General" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Date" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Teste</t>
   </si>
@@ -34,6 +35,9 @@
   </si>
   <si>
     <t>TimSort</t>
+  </si>
+  <si>
+    <t>Nativ</t>
   </si>
   <si>
     <t xml:space="preserve">Test 1</t>
@@ -74,6 +78,12 @@
   <si>
     <t xml:space="preserve">Avg without extremes</t>
   </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +148,14 @@
         <bgColor theme="4" tint="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,11 +163,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,13 +196,16 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="3" fillId="5" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -272,7 +306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>General!$B$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -294,7 +328,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>General!$B$2:$B$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -304,7 +338,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>General!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -326,7 +360,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>General!$C$2:$C$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -336,7 +370,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>General!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -358,7 +392,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>General!$D$2:$D$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -368,7 +402,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>General!$E$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -390,7 +424,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>General!$E$2:$E$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -400,7 +434,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>General!$F$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -422,7 +456,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:f>General!$F$2:$F$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -432,7 +466,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>General!$G$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -454,11 +488,19 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>General!$G$2:$G$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="511721972"/>
@@ -669,6 +711,359 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>TimSort si Nativ</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$G$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$G$2:$G$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$H$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$H$2:$H$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="511722102"/>
+        <c:axId val="511722103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511722102"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511722103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722102"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="6730999" y="18229035"/>
+      <a:ext cx="6504213" cy="3898899"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
@@ -753,7 +1148,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>General!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -775,7 +1170,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>General!$C$2:$C$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -785,7 +1180,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>General!$F$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -807,7 +1202,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:f>General!$F$2:$F$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -817,7 +1212,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>General!$G$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -839,11 +1234,19 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:f>General!$G$2:$G$7</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="511722026"/>
@@ -1138,7 +1541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>General!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -1160,7 +1563,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>General!$C$2:$C$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1170,7 +1573,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>General!$G$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -1192,11 +1595,19 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>General!$G$2:$G$11</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="511722033"/>
@@ -1407,7 +1818,1893 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>General!$A$2:$A$11</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$B$2:$B$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="511722046"/>
+        <c:axId val="511722047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511722046"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511722047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722046"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="5713638" y="5928178"/>
+      <a:ext cx="6504213" cy="3891642"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11426"/>
+          <c:y val="-0.34422999999999998"/>
+          <c:w val="0.87505999999999995"/>
+          <c:h val="0.73580999999999996"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$E$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$E$2:$E$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="511722055"/>
+        <c:axId val="511722056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511722055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511722056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="104773" y="9996714"/>
+      <a:ext cx="6504213" cy="3891642"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Counting vs Radix</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$B$2:$B$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$E$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$E$2:$E$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="511722064"/>
+        <c:axId val="511722065"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511722064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722065"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511722065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="6799035" y="9996714"/>
+      <a:ext cx="6504213" cy="3891642"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$C$2:$C$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="511722073"/>
+        <c:axId val="511722074"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511722073"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722074"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511722074"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722073"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="104773" y="14051642"/>
+      <a:ext cx="6504213" cy="3891642"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$F$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$F$2:$F$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="511722082"/>
+        <c:axId val="511722083"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511722082"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722083"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511722083"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722082"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="6948714" y="14051642"/>
+      <a:ext cx="6504213" cy="3891642"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>General!$H$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>General!$H$2:$H$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="511722093"/>
+        <c:axId val="511722094"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511722093"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722094"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511722094"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722093"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="104773" y="18229035"/>
+      <a:ext cx="6504213" cy="3891642"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1527,6 +3824,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2075,7 +4612,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2623,7 +5160,3843 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3214,7 +9587,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:colOff>47623</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -3269,13 +9642,237 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161923</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16781</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="511722043" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5713638" y="5928178"/>
+        <a:ext cx="6504213" cy="3891642"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104773</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057273</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="511722052" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="104773" y="9996714"/>
+        <a:ext cx="6504213" cy="3891642"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1247321</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>494392</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="511722061" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6799035" y="9996714"/>
+        <a:ext cx="6504213" cy="3891642"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104773</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057273</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="511722070" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="104773" y="14051642"/>
+        <a:ext cx="6504213" cy="3891642"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34471</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="511722079" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6948714" y="14051642"/>
+        <a:ext cx="6504213" cy="3891642"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104773</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>86178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057273</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>167821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="511722090" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="104773" y="18229035"/>
+        <a:ext cx="6504213" cy="3891642"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1179285</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>86178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426357</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>175078</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="511722099" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6730999" y="18229035"/>
+        <a:ext cx="6504213" cy="3898899"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="$A$1:$G$11">
-  <autoFilter ref="$A$1:$G$11"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="A1:H11">
+  <autoFilter ref="A1:H11"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Teste"/>
     <tableColumn id="2" name="RadixSort"/>
     <tableColumn id="3" name="MergeSort"/>
@@ -3283,6 +9880,7 @@
     <tableColumn id="5" name="CountingSort"/>
     <tableColumn id="6" name="InsertionSort"/>
     <tableColumn id="7" name="TimSort"/>
+    <tableColumn id="8" name="Nativ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3794,6 +10392,7 @@
     <col customWidth="1" min="5" max="5" width="19.00390625"/>
     <col customWidth="1" min="6" max="6" width="18.8515625"/>
     <col customWidth="1" min="7" max="7" width="14.57421875"/>
+    <col bestFit="1" min="8" max="8" width="11.59375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -3818,10 +10417,13 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="15">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>1.7e-05</v>
@@ -3841,10 +10443,13 @@
       <c r="G2" s="4">
         <v>0.00015899999999999999</v>
       </c>
+      <c r="H2" s="4">
+        <v>5.7000000000000003e-05</v>
+      </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>9.5000000000000005e-05</v>
@@ -3864,10 +10469,13 @@
       <c r="G3" s="4">
         <v>0.0010150000000000001</v>
       </c>
+      <c r="H3" s="4">
+        <v>0.00032699999999999998</v>
+      </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>0.00015899999999999999</v>
@@ -3887,10 +10495,13 @@
       <c r="G4" s="4">
         <v>0.0024910000000000002</v>
       </c>
+      <c r="H4" s="4">
+        <v>0.00062600000000000004</v>
+      </c>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>0.0010679999999999999</v>
@@ -3910,10 +10521,13 @@
       <c r="G5" s="4">
         <v>0.019949000000000001</v>
       </c>
+      <c r="H5" s="4">
+        <v>0.0040670000000000003</v>
+      </c>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <v>0.0011299999999999999</v>
@@ -3933,10 +10547,13 @@
       <c r="G6" s="4">
         <v>0.018379</v>
       </c>
+      <c r="H6" s="4">
+        <v>0.0035690000000000001</v>
+      </c>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="4">
         <v>0.002764</v>
@@ -3956,10 +10573,13 @@
       <c r="G7" s="4">
         <v>0.032107999999999998</v>
       </c>
+      <c r="H7" s="4">
+        <v>0.0067549999999999997</v>
+      </c>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>0.24775700000000001</v>
@@ -3977,10 +10597,13 @@
       <c r="G8" s="4">
         <v>5.8115899999999998</v>
       </c>
+      <c r="H8" s="4">
+        <v>1.0424899999999999</v>
+      </c>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0.28460400000000002</v>
@@ -3998,10 +10621,13 @@
       <c r="G9" s="4">
         <v>5.6986299999999996</v>
       </c>
+      <c r="H9" s="4">
+        <v>0.80894100000000002</v>
+      </c>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>0.29200799999999999</v>
@@ -4019,10 +10645,13 @@
       <c r="G10" s="4">
         <v>5.6377300000000004</v>
       </c>
+      <c r="H10" s="4">
+        <v>0.53931700000000005</v>
+      </c>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>0.42208200000000001</v>
@@ -4040,92 +10669,107 @@
       <c r="G11" s="4">
         <v>5.6624800000000004</v>
       </c>
+      <c r="H11" s="4">
+        <v>0.36970999999999998</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
         <f>AVERAGE(B2:B11)</f>
         <v>0.12516840000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <f>AVERAGE(C2:C11)</f>
         <v>0.26335510000000001</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>AVERAGE(D2:D11)</f>
         <v>189.18544533333332</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f>AVERAGE(E2:E11)</f>
         <v>0.1531457</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>AVERAGE(F2:F11)</f>
         <v>2087.2514548999998</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>AVERAGE(G2:G11)</f>
         <v>2.2884531000000004</v>
       </c>
+      <c r="H12" s="5">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.2775859</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6">
         <f>SUM(B2:B11)</f>
         <v>1.251684</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>SUM(C2:C11)</f>
         <v>2.6335510000000002</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>SUM(D2:D11)</f>
         <v>1135.112672</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f>SUM(E2:E11)</f>
         <v>1.5314570000000001</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f>SUM(F2:F11)</f>
         <v>20872.514549</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f>SUM(G2:G11)</f>
         <v>22.884531000000003</v>
       </c>
+      <c r="H13" s="6">
+        <f>SUM(H2:H11)</f>
+        <v>2.7758590000000001</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
         <f>AVERAGE(B2:B4)</f>
         <v>9.0333333333333325e-05</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>AVERAGE(C2:C4)</f>
         <v>0.00018766666666666663</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>AVERAGE(D2:D4)</f>
         <v>0.38555733333333331</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>AVERAGE(E2:E4)</f>
         <v>0.00037966666666666666</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f>AVERAGE(F2:F4)</f>
         <v>0.0041193333333333334</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f>AVERAGE(G2:G4)</f>
         <v>0.0012216666666666667</v>
+      </c>
+      <c r="H14" s="6">
+        <f>AVERAGE(H2:H4)</f>
+        <v>0.0003366666666666667</v>
       </c>
     </row>
     <row r="15" ht="15"/>
@@ -4141,11 +10785,120 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="9.421875"/>
+    <col bestFit="1" min="2" max="2" width="8.33203125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B3" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>200000</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>50000000</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>